--- a/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:01:55+00:00</t>
+    <t>2023-09-05T15:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T15:24:46+00:00</t>
+    <t>2023-09-05T15:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T15:29:54+00:00</t>
+    <t>2023-09-06T08:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/62-ajout-flux2/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T08:46:34+00:00</t>
+    <t>2023-09-13T06:39:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
